--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H2">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N2">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O2">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P2">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q2">
-        <v>104.8666015629151</v>
+        <v>99.990450883747</v>
       </c>
       <c r="R2">
-        <v>943.799414066236</v>
+        <v>899.914057953723</v>
       </c>
       <c r="S2">
-        <v>0.001978411979798767</v>
+        <v>0.002183828130878781</v>
       </c>
       <c r="T2">
-        <v>0.001978411979798767</v>
+        <v>0.002183828130878782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H3">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N3">
         <v>2.165195</v>
       </c>
       <c r="O3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q3">
-        <v>19.17911735823778</v>
+        <v>14.95956537432834</v>
       </c>
       <c r="R3">
-        <v>172.61205622414</v>
+        <v>134.636088368955</v>
       </c>
       <c r="S3">
-        <v>0.0003618329856979233</v>
+        <v>0.0003267223960032028</v>
       </c>
       <c r="T3">
-        <v>0.0003618329856979233</v>
+        <v>0.0003267223960032028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H4">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N4">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O4">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P4">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q4">
-        <v>61.94789490994577</v>
+        <v>97.80534194754867</v>
       </c>
       <c r="R4">
-        <v>557.5310541895119</v>
+        <v>880.2480775279381</v>
       </c>
       <c r="S4">
-        <v>0.001168708202483537</v>
+        <v>0.002136104550059524</v>
       </c>
       <c r="T4">
-        <v>0.001168708202483537</v>
+        <v>0.002136104550059524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H5">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N5">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O5">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P5">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q5">
-        <v>873.6484946367475</v>
+        <v>579.9011596021525</v>
       </c>
       <c r="R5">
-        <v>7862.836451730727</v>
+        <v>5219.110436419372</v>
       </c>
       <c r="S5">
-        <v>0.01648224145878817</v>
+        <v>0.01266525407451938</v>
       </c>
       <c r="T5">
-        <v>0.01648224145878817</v>
+        <v>0.01266525407451938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H6">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I6">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J6">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N6">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O6">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P6">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q6">
-        <v>185.4682419225018</v>
+        <v>53.30354455688801</v>
       </c>
       <c r="R6">
-        <v>1669.214177302516</v>
+        <v>479.731901011992</v>
       </c>
       <c r="S6">
-        <v>0.003499041508192204</v>
+        <v>0.001164168968637022</v>
       </c>
       <c r="T6">
-        <v>0.003499041508192203</v>
+        <v>0.001164168968637022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J7">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N7">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O7">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P7">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q7">
-        <v>4332.965004083414</v>
+        <v>5296.831466039194</v>
       </c>
       <c r="R7">
-        <v>38996.68503675073</v>
+        <v>47671.48319435275</v>
       </c>
       <c r="S7">
-        <v>0.08174566300772512</v>
+        <v>0.1156847424711485</v>
       </c>
       <c r="T7">
-        <v>0.08174566300772512</v>
+        <v>0.1156847424711485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J8">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N8">
         <v>2.165195</v>
       </c>
       <c r="O8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q8">
-        <v>792.458638726796</v>
+        <v>792.4586387267963</v>
       </c>
       <c r="R8">
-        <v>7132.127748541165</v>
+        <v>7132.127748541166</v>
       </c>
       <c r="S8">
-        <v>0.01495051466325533</v>
+        <v>0.01730758739973622</v>
       </c>
       <c r="T8">
-        <v>0.01495051466325533</v>
+        <v>0.01730758739973622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J9">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N9">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O9">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P9">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q9">
-        <v>2559.614374080709</v>
+        <v>5181.078874989922</v>
       </c>
       <c r="R9">
-        <v>23036.52936672638</v>
+        <v>46629.7098749093</v>
       </c>
       <c r="S9">
-        <v>0.04828965243341322</v>
+        <v>0.1131566634163855</v>
       </c>
       <c r="T9">
-        <v>0.04828965243341321</v>
+        <v>0.1131566634163855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I10">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J10">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N10">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O10">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P10">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q10">
-        <v>36098.13130885208</v>
+        <v>30719.32051736131</v>
       </c>
       <c r="R10">
-        <v>324883.1817796688</v>
+        <v>276473.8846562518</v>
       </c>
       <c r="S10">
-        <v>0.6810268890704446</v>
+        <v>0.670921230121184</v>
       </c>
       <c r="T10">
-        <v>0.6810268890704446</v>
+        <v>0.670921230121184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I11">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J11">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N11">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O11">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P11">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q11">
-        <v>7663.330265708451</v>
+        <v>2823.668555996478</v>
       </c>
       <c r="R11">
-        <v>68969.97239137605</v>
+        <v>25413.0170039683</v>
       </c>
       <c r="S11">
-        <v>0.1445762919449243</v>
+        <v>0.06166995718453449</v>
       </c>
       <c r="T11">
-        <v>0.1445762919449242</v>
+        <v>0.06166995718453448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H12">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N12">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O12">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P12">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q12">
-        <v>0.7669545494325555</v>
+        <v>4.818317781526334</v>
       </c>
       <c r="R12">
-        <v>6.902590944893</v>
+        <v>43.364860033737</v>
       </c>
       <c r="S12">
-        <v>1.446935483694675E-05</v>
+        <v>0.0001052338280486843</v>
       </c>
       <c r="T12">
-        <v>1.446935483694675E-05</v>
+        <v>0.0001052338280486844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H13">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N13">
         <v>2.165195</v>
       </c>
       <c r="O13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q13">
-        <v>0.1402687899938889</v>
+        <v>0.7208682350161113</v>
       </c>
       <c r="R13">
-        <v>1.262419109945</v>
+        <v>6.487814115145001</v>
       </c>
       <c r="S13">
-        <v>2.646309219330373E-06</v>
+        <v>1.574402671826543E-05</v>
       </c>
       <c r="T13">
-        <v>2.646309219330373E-06</v>
+        <v>1.574402671826543E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H14">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I14">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J14">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N14">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O14">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P14">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q14">
-        <v>0.4530634074228889</v>
+        <v>4.713022234313556</v>
       </c>
       <c r="R14">
-        <v>4.077570666806</v>
+        <v>42.417200108822</v>
       </c>
       <c r="S14">
-        <v>8.547488518697982E-06</v>
+        <v>0.0001029341346676945</v>
       </c>
       <c r="T14">
-        <v>8.547488518697984E-06</v>
+        <v>0.0001029341346676946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H15">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I15">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J15">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N15">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O15">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P15">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q15">
-        <v>6.389533727423777</v>
+        <v>27.94414910767212</v>
       </c>
       <c r="R15">
-        <v>57.505803546814</v>
+        <v>251.497341969049</v>
       </c>
       <c r="S15">
-        <v>0.0001205448625516807</v>
+        <v>0.0006103104684041878</v>
       </c>
       <c r="T15">
-        <v>0.0001205448625516807</v>
+        <v>0.0006103104684041878</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H16">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I16">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J16">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N16">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O16">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P16">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q16">
-        <v>1.356444375975889</v>
+        <v>2.568579442205333</v>
       </c>
       <c r="R16">
-        <v>12.207999383783</v>
+        <v>23.117214979848</v>
       </c>
       <c r="S16">
-        <v>2.559066245463597E-05</v>
+        <v>5.6098717354586E-05</v>
       </c>
       <c r="T16">
-        <v>2.559066245463597E-05</v>
+        <v>5.6098717354586E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H17">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I17">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J17">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N17">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O17">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P17">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q17">
-        <v>24.05067474934133</v>
+        <v>5.980911974318667</v>
       </c>
       <c r="R17">
-        <v>216.456072744072</v>
+        <v>53.828207768868</v>
       </c>
       <c r="S17">
-        <v>0.0004537397258725268</v>
+        <v>0.0001306253117411425</v>
       </c>
       <c r="T17">
-        <v>0.0004537397258725269</v>
+        <v>0.0001306253117411426</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H18">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I18">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J18">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N18">
         <v>2.165195</v>
       </c>
       <c r="O18">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P18">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q18">
-        <v>4.398642720253332</v>
+        <v>0.8948038826422223</v>
       </c>
       <c r="R18">
-        <v>39.58778448227999</v>
+        <v>8.053234943780001</v>
       </c>
       <c r="S18">
-        <v>8.298473797096242E-05</v>
+        <v>1.95428450743317E-05</v>
       </c>
       <c r="T18">
-        <v>8.298473797096242E-05</v>
+        <v>1.95428450743317E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H19">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I19">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J19">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N19">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O19">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P19">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q19">
-        <v>14.20746595846933</v>
+        <v>5.850210051423111</v>
       </c>
       <c r="R19">
-        <v>127.867193626224</v>
+        <v>52.65189046280801</v>
       </c>
       <c r="S19">
-        <v>0.0002680378732208201</v>
+        <v>0.0001277707337943833</v>
       </c>
       <c r="T19">
-        <v>0.0002680378732208201</v>
+        <v>0.0001277707337943833</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H20">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I20">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J20">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N20">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O20">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P20">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q20">
-        <v>200.3672806842507</v>
+        <v>34.68669016622623</v>
       </c>
       <c r="R20">
-        <v>1803.305526158256</v>
+        <v>312.180211496036</v>
       </c>
       <c r="S20">
-        <v>0.003780126585179709</v>
+        <v>0.0007575700387645117</v>
       </c>
       <c r="T20">
-        <v>0.00378012658517971</v>
+        <v>0.0007575700387645118</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H21">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I21">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J21">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N21">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O21">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P21">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q21">
-        <v>42.53629178718133</v>
+        <v>3.188342537674667</v>
       </c>
       <c r="R21">
-        <v>382.826626084632</v>
+        <v>28.695082839072</v>
       </c>
       <c r="S21">
-        <v>0.0008024891432901709</v>
+        <v>6.963457073262532E-05</v>
       </c>
       <c r="T21">
-        <v>0.0008024891432901708</v>
+        <v>6.963457073262531E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H22">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I22">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J22">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N22">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O22">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P22">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q22">
-        <v>1.614170514741556</v>
+        <v>4.266064112954666</v>
       </c>
       <c r="R22">
-        <v>14.527534632674</v>
+        <v>38.394577016592</v>
       </c>
       <c r="S22">
-        <v>3.045292053148768E-05</v>
+        <v>9.317240532132821E-05</v>
       </c>
       <c r="T22">
-        <v>3.045292053148768E-05</v>
+        <v>9.317240532132823E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H23">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I23">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J23">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N23">
         <v>2.165195</v>
       </c>
       <c r="O23">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P23">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q23">
-        <v>0.2952166397788888</v>
+        <v>0.6382455967022223</v>
       </c>
       <c r="R23">
-        <v>2.65694975801</v>
+        <v>5.74421037032</v>
       </c>
       <c r="S23">
-        <v>5.569553395168258E-06</v>
+        <v>1.393951798565583E-05</v>
       </c>
       <c r="T23">
-        <v>5.569553395168259E-06</v>
+        <v>1.393951798565582E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H24">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I24">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J24">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N24">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O24">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P24">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q24">
-        <v>0.953539677300889</v>
+        <v>4.172837062439111</v>
       </c>
       <c r="R24">
-        <v>8.581857095708001</v>
+        <v>37.555533561952</v>
       </c>
       <c r="S24">
-        <v>1.798946750127799E-05</v>
+        <v>9.113629233578491E-05</v>
       </c>
       <c r="T24">
-        <v>1.798946750127799E-05</v>
+        <v>9.113629233578492E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H25">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I25">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J25">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N25">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O25">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P25">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q25">
-        <v>13.44772901260578</v>
+        <v>24.74131783759822</v>
       </c>
       <c r="R25">
-        <v>121.029561113452</v>
+        <v>222.671860538384</v>
       </c>
       <c r="S25">
-        <v>0.0002537046856015912</v>
+        <v>0.0005403594584404704</v>
       </c>
       <c r="T25">
-        <v>0.0002537046856015912</v>
+        <v>0.0005403594584404704</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H26">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I26">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J26">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N26">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O26">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P26">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q26">
-        <v>2.854839987854889</v>
+        <v>2.274180549418666</v>
       </c>
       <c r="R26">
-        <v>25.693559890694</v>
+        <v>20.467624944768</v>
       </c>
       <c r="S26">
-        <v>5.385937513186322E-05</v>
+        <v>4.966893752976482E-05</v>
       </c>
       <c r="T26">
-        <v>5.385937513186322E-05</v>
+        <v>4.966893752976482E-05</v>
       </c>
     </row>
   </sheetData>
